--- a/data/trans_bre/P08_2_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P08_2_R-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.988968365530056</v>
+        <v>-3.020300414913252</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.302064428086838</v>
+        <v>3.955796312686807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.433641812807613</v>
+        <v>1.857571636036463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.8580119061570141</v>
+        <v>-0.5820863206318048</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1700035694078625</v>
+        <v>-0.1730059447140583</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1991808010765098</v>
+        <v>0.2099995549324912</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06584455636258731</v>
+        <v>0.08051663247915961</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.05100037504876475</v>
+        <v>-0.03506078215564994</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.27231999665574</v>
+        <v>9.961039065412654</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.71358771009775</v>
+        <v>18.06219451167718</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.20408024035848</v>
+        <v>15.97556270921087</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.905241995440665</v>
+        <v>8.830726779234819</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7980353852568761</v>
+        <v>0.802238894595979</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.390904258467942</v>
+        <v>1.494662674787321</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.029352161586418</v>
+        <v>1.098554212417082</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.787102343224897</v>
+        <v>0.7417708732939339</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>9.715551814644567</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.95732937434546</v>
+        <v>5.957329374345455</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8005149299593758</v>
@@ -749,7 +749,7 @@
         <v>0.8220937723340994</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3205691089065101</v>
+        <v>0.3205691089065097</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.649018805964062</v>
+        <v>6.071139401745804</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.186720038108493</v>
+        <v>5.82192442219703</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.895572479869985</v>
+        <v>4.779142816149346</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5734993759410179</v>
+        <v>1.111931787466172</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3331489954646229</v>
+        <v>0.3905256205270488</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2791870589769013</v>
+        <v>0.3248725399565982</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3493128977330886</v>
+        <v>0.3510677087609844</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02705501367795225</v>
+        <v>0.05110136152066638</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.13526327547168</v>
+        <v>15.96525541131279</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.37361472327289</v>
+        <v>15.61601222162665</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.65024964161015</v>
+        <v>14.32567409664577</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.69170395428466</v>
+        <v>10.25305532027948</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.422536762607725</v>
+        <v>1.42807086758758</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.306639262229515</v>
+        <v>1.260032584625679</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.533509117324552</v>
+        <v>1.464478125992698</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6856591561877505</v>
+        <v>0.6509342608555299</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.945751836496274</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.298339530057872</v>
+        <v>5.298339530057877</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.223428015474878</v>
@@ -849,7 +849,7 @@
         <v>0.4578182778859955</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3778917577716824</v>
+        <v>0.3778917577716828</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.345038987123298</v>
+        <v>8.223609675315869</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.535485185429721</v>
+        <v>0.7255657042466045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3075630124030528</v>
+        <v>0.2182589375222676</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7945328019403589</v>
+        <v>1.136449449717753</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5448608771046706</v>
+        <v>0.5527812245285828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07957977237913928</v>
+        <v>0.03349680141405868</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.006578239012589504</v>
+        <v>-0.0007558404947584484</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.03920492822900027</v>
+        <v>0.05851644065156307</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.15855796016571</v>
+        <v>19.69510710001061</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.46593153411527</v>
+        <v>13.97707278646981</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.68922438504234</v>
+        <v>11.9374065285464</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.762256358283006</v>
+        <v>10.12433554991826</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.229058119379353</v>
+        <v>2.251939243117583</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.012933136792973</v>
+        <v>1.101091949352548</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.124233042182704</v>
+        <v>1.115960567698777</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8341997772509265</v>
+        <v>0.8565283469768276</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>11.36389910494157</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.962887536460608</v>
+        <v>3.962887536460605</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8218891698007715</v>
@@ -949,7 +949,7 @@
         <v>0.7497089457744741</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2297935613642458</v>
+        <v>0.2297935613642456</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.92325066786456</v>
+        <v>4.824575074968657</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>9.179080763212101</v>
+        <v>9.009254774561857</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.837294830558829</v>
+        <v>4.862763410811368</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.006116831212879</v>
+        <v>-1.296600023736821</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3003966537423278</v>
+        <v>0.3109286846873103</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4977039613614054</v>
+        <v>0.4781515605368806</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3109747939646155</v>
+        <v>0.2659033481269086</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09521708059777334</v>
+        <v>-0.06396482751288898</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.86908703450034</v>
+        <v>16.18392472923727</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.67684181468153</v>
+        <v>21.9077431917506</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.80863838768239</v>
+        <v>17.98009804592389</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.827521391786576</v>
+        <v>9.266665868614535</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.544503768070521</v>
+        <v>1.677890760588233</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.705998665038642</v>
+        <v>1.800721744806292</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.465196275884395</v>
+        <v>1.455792329936083</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6270260733863621</v>
+        <v>0.6711281837153387</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.461431493053056</v>
+        <v>3.513534965651696</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.008883927394211</v>
+        <v>4.864831096213431</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.26460054665905</v>
+        <v>2.125474118238876</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.842373435429669</v>
+        <v>9.212142847091533</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1886429423044915</v>
+        <v>0.2256822059256583</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1686179943713148</v>
+        <v>0.2033810016528669</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0603328497736023</v>
+        <v>0.08877477430331958</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.6029178847038509</v>
+        <v>0.6211313568111566</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.61323215071457</v>
+        <v>16.87258969756177</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.24825491738376</v>
+        <v>21.7968839912715</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.33272030664666</v>
+        <v>16.33486187835127</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.19491726981784</v>
+        <v>19.33893012126138</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.354516102376618</v>
+        <v>2.456404169837885</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.583388196617175</v>
+        <v>1.622903162637833</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.699006821268902</v>
+        <v>1.68551650999716</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.140886248432314</v>
+        <v>2.191626795946155</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>9.787913138834254</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6.887085031991595</v>
+        <v>6.887085031991584</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6705035663915558</v>
@@ -1149,7 +1149,7 @@
         <v>0.4786321927347045</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.552108767776325</v>
+        <v>0.5521087677763241</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.159027053146227</v>
+        <v>3.190319433542886</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.181434671484232</v>
+        <v>1.200281223723557</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.593311151991997</v>
+        <v>1.825650062055938</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.471621635435703</v>
+        <v>2.61629303517732</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1717207556944086</v>
+        <v>0.1829073305164839</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04471420316107215</v>
+        <v>0.04103886890563147</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0597678725860094</v>
+        <v>0.08530628276455716</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1601716779253108</v>
+        <v>0.1607640092642811</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>16.52643051196992</v>
+        <v>17.44438688025332</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.66144562621681</v>
+        <v>15.78381188785653</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.97960160669949</v>
+        <v>17.17775162878571</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.43738329707356</v>
+        <v>11.41982592004576</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.342469588209218</v>
+        <v>1.450939052650828</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9189959645774519</v>
+        <v>0.9667961365856249</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.017924204827548</v>
+        <v>1.028733498563314</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.113344741397383</v>
+        <v>1.122794452861144</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.444320692591965</v>
+        <v>3.506904266771385</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.12228555249583</v>
+        <v>8.125360646208282</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.009859835712104</v>
+        <v>2.210809903181</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.882532861647324</v>
+        <v>4.958924131363594</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1928084908954923</v>
+        <v>0.2032824612426484</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5518067952203157</v>
+        <v>0.5383278515401964</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1045025983062274</v>
+        <v>0.1172319741948331</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2526011531675189</v>
+        <v>0.2578476839058454</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.04250385002528</v>
+        <v>12.29333368968878</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.88251778834531</v>
+        <v>16.73882808549497</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.3401679953342</v>
+        <v>11.35649334267834</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.67572897376346</v>
+        <v>12.59351922645509</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9174739013064668</v>
+        <v>0.9353058853201255</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.567100528290979</v>
+        <v>1.505162967696757</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8024571259752682</v>
+        <v>0.8025799161369191</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.8746259323133224</v>
+        <v>0.8783681162346607</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>0.5986343862451518</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.8478625149390068</v>
+        <v>0.847862514939007</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.670282604659945</v>
+        <v>4.920818501377319</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.641513852640436</v>
+        <v>1.882091851557846</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.659771601548308</v>
+        <v>3.621472001799594</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.260757209386208</v>
+        <v>7.264200961780253</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2840045254963686</v>
+        <v>0.2857925681966854</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09424471028511894</v>
+        <v>0.1112077901290769</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2633928222854323</v>
+        <v>0.2533997310217768</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5246838558832311</v>
+        <v>0.4982150404936907</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>12.63924806413053</v>
+        <v>12.48410131370454</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.41009818916452</v>
+        <v>10.26018264657031</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.857953026299</v>
+        <v>10.95282528736891</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13.97682660256729</v>
+        <v>13.98253192654416</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.007823208789184</v>
+        <v>1.003191586367098</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.767080735470988</v>
+        <v>0.7579760878417232</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.021631697770768</v>
+        <v>1.056551564993702</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.269330741696045</v>
+        <v>1.282132461599629</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>8.320451130508893</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7.768964744570495</v>
+        <v>7.768964744570492</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6693104238200496</v>
@@ -1449,7 +1449,7 @@
         <v>0.5740574334782713</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.518629587188981</v>
+        <v>0.5186295871889809</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.439256752469781</v>
+        <v>7.54389862013191</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.197892889168376</v>
+        <v>8.186816755017551</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.286797378249366</v>
+        <v>6.36320138456722</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.159393598637308</v>
+        <v>6.148351841095705</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5049679638979461</v>
+        <v>0.508935301614335</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4944075712334139</v>
+        <v>0.499052479501356</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4075982669825868</v>
+        <v>0.4104967974531798</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.3858316329503525</v>
+        <v>0.377152670873785</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.00858886029151</v>
+        <v>11.2264377045655</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.1392680499144</v>
+        <v>12.13153796160056</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.14693866133634</v>
+        <v>10.13705457835341</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.369227627359281</v>
+        <v>9.506548938008823</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8468909272518287</v>
+        <v>0.8542660554737598</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8223764634239844</v>
+        <v>0.827536058924621</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.745875438867125</v>
+        <v>0.732978808267177</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.6677447195892574</v>
+        <v>0.6669315453576884</v>
       </c>
     </row>
     <row r="31">
